--- a/biology/Botanique/Himanthalia/Himanthalia.xlsx
+++ b/biology/Botanique/Himanthalia/Himanthalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himanthalia est un genre d’algues brunes de la famille des Himanthaliaceae. 
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom Himanthalia, dérive du grec ιμασ / imas, « courroie ; lanière servant de fouet ; ceinture ; corde », et θαλασ / thalas, mer, littéralement « ceinture de mer ». Certaines sources parlent de façon erronée de « langue de mer »[3],[4]. En effet la description originale du botaniste danois Hans Christian Lyngbye (en) précise ἱμάς / imas, άντος / ántos, lorum, « lanière », et ἅλς / als, « mer ; sel »[5], soit littéralement « lanière de mer ».
-Noms vernaculaires
-Les Himanthalia sont utilisés pour l'alimentation humaine ; ils sont commercialisés en France sous le nom de « Haricots de mer » ou de « Spaghettis de mer »[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Himanthalia, dérive du grec ιμασ / imas, « courroie ; lanière servant de fouet ; ceinture ; corde », et θαλασ / thalas, mer, littéralement « ceinture de mer ». Certaines sources parlent de façon erronée de « langue de mer »,. En effet la description originale du botaniste danois Hans Christian Lyngbye (en) précise ἱμάς / imas, άντος / ántos, lorum, « lanière », et ἅλς / als, « mer ; sel », soit littéralement « lanière de mer ».
 </t>
         </is>
       </c>
@@ -542,15 +557,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Himanthalia sont utilisés pour l'alimentation humaine ; ils sont commercialisés en France sous le nom de « Haricots de mer » ou de « Spaghettis de mer ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Himanthalia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Himanthalia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 août 2017)[1] et World Register of Marine Species                               (23 août 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 août 2017) et World Register of Marine Species                               (23 août 2017) :
 Himanthalia durvillei Bory de Saint-Vincent, 1828
 Himanthalia elongata (Linnaeus) S.F.Gray, 1821 (espèce type)
-Selon ITIS      (23 août 2017)[6] :
+Selon ITIS      (23 août 2017) :
 Himanthalia elongata</t>
         </is>
       </c>
